--- a/data/trans_camb/P16A09-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A09-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.341017396426192</v>
+        <v>-3.408135097699062</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.625702862928207</v>
+        <v>-3.349721795642219</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.161618365897801</v>
+        <v>-5.055702739226116</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.230095658943755</v>
+        <v>-4.581909798448834</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.164199872015158</v>
+        <v>-4.477683664889616</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.12719433786408</v>
+        <v>-5.029030680985755</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.251613294772297</v>
+        <v>-3.174987574015316</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.986818611880147</v>
+        <v>-3.089323241303051</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.884914838188387</v>
+        <v>-3.900362247394055</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.968936150359822</v>
+        <v>1.799727629993429</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.449254475616103</v>
+        <v>1.673367509347481</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.268807430205326</v>
+        <v>-1.053321146018064</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.521463997205001</v>
+        <v>2.963694331076359</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.994979670525908</v>
+        <v>2.588942588510331</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.134776704201953</v>
+        <v>1.215548689790499</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.186635402344251</v>
+        <v>1.245211098050903</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.384160156092463</v>
+        <v>1.3749586949271</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.4231476298115706</v>
+        <v>-0.5227683885803422</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8171643480311569</v>
+        <v>-0.8009580837255483</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8296178586780579</v>
+        <v>-0.8000087420687885</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.665463983098236</v>
+        <v>-0.7066752930806016</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6707016602906719</v>
+        <v>-0.6547786080382452</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6947110056275462</v>
+        <v>-0.6910117938231277</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6420666595754677</v>
+        <v>-0.6434539275159546</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.629911768411011</v>
+        <v>-0.6101702441536928</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7522207580182957</v>
+        <v>-0.7587674728048469</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.408815635600635</v>
+        <v>1.366371991757724</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.024506180013819</v>
+        <v>1.317485421837126</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3672615507689701</v>
+        <v>-0.440250299397059</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9821432013532095</v>
+        <v>1.033595867506553</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.201301368792976</v>
+        <v>1.173829004449641</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4918762747558084</v>
+        <v>0.5234694688367776</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4849338979915534</v>
+        <v>0.4937161476027837</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5152956431660386</v>
+        <v>0.511368995921071</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1359089365006653</v>
+        <v>-0.1532070873649627</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2058765129239346</v>
+        <v>0.2075121401582687</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8795828276271088</v>
+        <v>-1.024392486927004</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.439000160377282</v>
+        <v>-1.441208751949725</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.180207996481214</v>
+        <v>-3.406753764251262</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.507661990293183</v>
+        <v>-5.439924625139135</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.37839579661187</v>
+        <v>-6.735875888688798</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.146459087715945</v>
+        <v>-1.001914246678631</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.702336647683261</v>
+        <v>-2.638052355463649</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.531256178940138</v>
+        <v>-3.580251987030757</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.359753221576314</v>
+        <v>4.43794341044025</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.832747486869391</v>
+        <v>1.694300749838862</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8884451131211446</v>
+        <v>0.8383851829013512</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.354750241565834</v>
+        <v>2.204476767849771</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.3130801338884159</v>
+        <v>-0.3572462189955635</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.873262526218254</v>
+        <v>-2.016797415460831</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.472585203504073</v>
+        <v>2.411995214118364</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2811078555766279</v>
+        <v>0.3667369034003927</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.9846892891856817</v>
+        <v>-0.9580989996925104</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1217335036805803</v>
+        <v>-0.1629022287060145</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6125467099567181</v>
+        <v>-0.6520144813799061</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4693905054846392</v>
+        <v>-0.4803871655379432</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7500120218806552</v>
+        <v>-0.7442180082104585</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8416673622170529</v>
+        <v>-0.8514974458353355</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2762158371325177</v>
+        <v>-0.2482112917005806</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6541169983452433</v>
+        <v>-0.6380203949156918</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.8124550405249273</v>
+        <v>-0.8026272513420042</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9.38540221683297</v>
+        <v>8.521964751256412</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.553104425392415</v>
+        <v>3.351352662739549</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.372028505737123</v>
+        <v>2.274913043426849</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5961045635866073</v>
+        <v>0.5555324532898273</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.003903856138230584</v>
+        <v>-0.009191656577343148</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4235869559808916</v>
+        <v>-0.4193002756306461</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.944419876268884</v>
+        <v>0.9181906801136736</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1169146709212601</v>
+        <v>0.1631017859911822</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.3549037949741754</v>
+        <v>-0.3417944874057138</v>
       </c>
     </row>
     <row r="16">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.3673842621508905</v>
+        <v>0.3673842621508904</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>1.061832036251541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5371385170882549</v>
+        <v>0.5371385170882547</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.595197517078604</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.466860787720697</v>
+        <v>-1.190458820650695</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7379784446170692</v>
+        <v>-0.7600111973222256</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.164744569924727</v>
+        <v>-1.255169282482147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5568783942573896</v>
+        <v>0.7019073928472371</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.336158127509462</v>
+        <v>-1.347485340896409</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.2053605732577778</v>
+        <v>-0.1645333685820168</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3778944881053459</v>
+        <v>0.3144696632512357</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.5137271888469088</v>
+        <v>-0.5806394869154017</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.005515479348563935</v>
+        <v>-0.05398701303853568</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.234577713765498</v>
+        <v>2.471054649156502</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.020665461276204</v>
+        <v>2.871765621748849</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.04162871219989</v>
+        <v>2.209685810400363</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.689412297051753</v>
+        <v>6.900894899636506</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.693782183900344</v>
+        <v>4.017031300131605</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.424402490323774</v>
+        <v>4.546639573125017</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.896495097188245</v>
+        <v>3.831163290135382</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.722415019755169</v>
+        <v>2.702872316804744</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.812304634692325</v>
+        <v>2.844550746096874</v>
       </c>
     </row>
     <row r="19">
@@ -1173,13 +1173,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.3035055572093313</v>
+        <v>0.3035055572093311</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.8772066662258946</v>
+        <v>0.8772066662258944</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.4437438990255603</v>
+        <v>0.4437438990255601</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.544872916108424</v>
@@ -1207,32 +1207,30 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="6" t="n">
-        <v>-0.8259096405198655</v>
-      </c>
+      <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>-0.5076798293604393</v>
+        <v>-0.4956528641940806</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7017454134852306</v>
+        <v>-0.687300836024143</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.0836408266713969</v>
+        <v>0.05179549862298419</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4176498256625025</v>
+        <v>-0.4865829941429807</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1030337889454593</v>
+        <v>-0.08989942415455185</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06802541546083903</v>
+        <v>0.1229154515439169</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2326641550893689</v>
+        <v>-0.275883714583179</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.05702068712596094</v>
+        <v>-0.08756099268577483</v>
       </c>
     </row>
     <row r="21">
@@ -1242,32 +1240,30 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>5.429733808214506</v>
-      </c>
+      <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>7.252289205603854</v>
+        <v>6.824631081433312</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.789228016148594</v>
+        <v>4.53710049214243</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.961875586495995</v>
+        <v>5.625517953648429</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.005318347257069</v>
+        <v>3.497302158797827</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.056366341199143</v>
+        <v>3.941074092184822</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.454816504397839</v>
+        <v>3.675025745807386</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.518892103867362</v>
+        <v>2.287601559277149</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.773006620278911</v>
+        <v>2.56333762512486</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1302,7 @@
         <v>-0.137375217294964</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.9069768853071463</v>
+        <v>0.9069768853071456</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.151516253438838</v>
+        <v>-1.087961861279724</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.128317277570415</v>
+        <v>-2.38148045918098</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.197783410605475</v>
+        <v>-1.354609316816094</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.293621391596302</v>
+        <v>-0.0001739023877633047</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.57314575351515</v>
+        <v>-2.896489962808218</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.839294922143793</v>
+        <v>-1.899424705725582</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.445885194768867</v>
+        <v>0.3286402130876202</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.882877179728435</v>
+        <v>-2.011273030219913</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8597457993445144</v>
+        <v>-0.9146152510669661</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.780618069841182</v>
+        <v>3.838794616328547</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.676871797348997</v>
+        <v>1.743609824059817</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.927173117247627</v>
+        <v>3.459376711260358</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.617901358716568</v>
+        <v>7.046059860013703</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.969749672428904</v>
+        <v>2.776197843308156</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.863434467032814</v>
+        <v>3.9144748584164</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.305739103909484</v>
+        <v>4.249529490303158</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.587478609795112</v>
+        <v>1.511970047766538</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.832943907961713</v>
+        <v>2.778587012994929</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1407,7 @@
         <v>-0.04459959508096939</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2944548706019075</v>
+        <v>0.2944548706019073</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4439252195895811</v>
+        <v>-0.4072718970939948</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7291041914743006</v>
+        <v>-0.8009386132409065</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.488779863160007</v>
+        <v>-0.4980492541245041</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02852101048900663</v>
+        <v>-0.01033635901356959</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.501572779797926</v>
+        <v>-0.5218403279719552</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3612622957877124</v>
+        <v>-0.3654187273582165</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05685359428845669</v>
+        <v>0.05469666595019815</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4905762935655189</v>
+        <v>-0.499846905406607</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2804054044293288</v>
+        <v>-0.2326151708013265</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.927952703288126</v>
+        <v>3.632587251817001</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.076803812184923</v>
+        <v>1.75193089437738</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.601414536846471</v>
+        <v>3.020298824159559</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.350858165584613</v>
+        <v>2.722199643485133</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.03944710956532</v>
+        <v>0.9672521475040061</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.48733376886502</v>
+        <v>1.463879699227347</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.806380689949975</v>
+        <v>1.873371762532551</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7896423653682236</v>
+        <v>0.7167001452357078</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.251494466970595</v>
+        <v>1.172661126666089</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1507,7 @@
         <v>-4.249168782895318</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-6.59485340445005</v>
+        <v>-6.594853404450052</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.3747210770956882</v>
@@ -1531,31 +1527,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.930480252317668</v>
+        <v>-4.716945133985059</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.484652124611827</v>
+        <v>-8.038760952879356</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.618732872307982</v>
+        <v>-7.796210850362466</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.109434152073432</v>
+        <v>-6.464967908928415</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.546635624773259</v>
+        <v>-10.05459683957022</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-11.93331468374287</v>
+        <v>-11.41488270574008</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.403315629003702</v>
+        <v>-4.118890995262304</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.757703990668302</v>
+        <v>-7.298483651656892</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.707874886387307</v>
+        <v>-8.367010054483385</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1562,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.637267218814535</v>
+        <v>3.583322163556507</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.059386488450033</v>
+        <v>-1.887742609475343</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.263596522301767</v>
+        <v>-1.371323616580494</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.274785058953481</v>
+        <v>5.553246192136225</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.036910029701488</v>
+        <v>1.036719685426423</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.500163419229699</v>
+        <v>-2.701065590665221</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.988575035838297</v>
+        <v>2.977000456297743</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.345300474883066</v>
+        <v>-0.8721791033002925</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-2.808133914301535</v>
+        <v>-2.55153026258846</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1612,7 @@
         <v>-0.4218483854196708</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.6547229359176084</v>
+        <v>-0.6547229359176086</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.05170156768292693</v>
@@ -1636,29 +1632,29 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7374221929599023</v>
+        <v>-0.7591868412463211</v>
       </c>
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5169174893764066</v>
+        <v>-0.4851645406732433</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7345797773533596</v>
+        <v>-0.7376107723152043</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8341602349477066</v>
+        <v>-0.8182871479208806</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4638006336007645</v>
+        <v>-0.4527734366271781</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.8072333301635354</v>
+        <v>-0.7959982376384632</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.8381096554191181</v>
+        <v>-0.8336571164482602</v>
       </c>
     </row>
     <row r="33">
@@ -1669,29 +1665,29 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.579363965982248</v>
+        <v>1.782172142883019</v>
       </c>
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="n">
-        <v>-0.3802501119333575</v>
+        <v>-0.2274408640712703</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7294794892384538</v>
+        <v>0.8763213153086917</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2441917660787772</v>
+        <v>0.2029852872692824</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.36333983789506</v>
+        <v>-0.3792011224236999</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5896431475276793</v>
+        <v>0.5334615522821941</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.18372977151418</v>
+        <v>-0.08496353270336801</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.5152961374289452</v>
+        <v>-0.4762887236835491</v>
       </c>
     </row>
     <row r="34">
@@ -1712,7 +1708,7 @@
         <v>-0.06156931274012151</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>0.4125025012010314</v>
+        <v>0.412502501201031</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2.146043624387275</v>
@@ -1721,7 +1717,7 @@
         <v>1.172875052987316</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.723905944996446</v>
+        <v>1.723905944996444</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.178860980723807</v>
@@ -1741,31 +1737,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.396358049483997</v>
+        <v>-2.065648790213808</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.533680316632044</v>
+        <v>-2.235745632490116</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.034252798725504</v>
+        <v>-1.821386591301201</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.415042772457867</v>
+        <v>-1.390667754809986</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.28735257847323</v>
+        <v>-2.190140858319364</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.610310863007338</v>
+        <v>-1.601381704275601</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.92163969740384</v>
+        <v>-0.9446083882786347</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.58254994481139</v>
+        <v>-1.582246085996026</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.8065781940627091</v>
+        <v>-0.8214997421050678</v>
       </c>
     </row>
     <row r="36">
@@ -1776,31 +1772,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.821096053395566</v>
+        <v>2.750351124674726</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.363566833511993</v>
+        <v>2.400485618944095</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.371375562135833</v>
+        <v>2.431238621551789</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.981080442900923</v>
+        <v>5.748337368234608</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.512274525197626</v>
+        <v>4.72503701879365</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.293664301918825</v>
+        <v>4.417374353687658</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.499033950237946</v>
+        <v>3.305442128366225</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.959716328660293</v>
+        <v>2.633248438908594</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.78219484072404</v>
+        <v>2.923477444705919</v>
       </c>
     </row>
     <row r="37">
@@ -1817,7 +1813,7 @@
         <v>-0.02948435262254552</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.1975394666890221</v>
+        <v>0.1975394666890219</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.5806169294802547</v>
@@ -1826,7 +1822,7 @@
         <v>0.3173239836277413</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4664066308448749</v>
+        <v>0.4664066308448743</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4060958885903037</v>
@@ -1846,31 +1842,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.7774901635522294</v>
+        <v>-0.7371444364706691</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8185915294919558</v>
+        <v>-0.7949929444628862</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6358122237465245</v>
+        <v>-0.5897461784476073</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3481507094949676</v>
+        <v>-0.2760507944392948</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4636884998715484</v>
+        <v>-0.432466659940511</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2922297759947142</v>
+        <v>-0.3057340906071416</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2472742937167531</v>
+        <v>-0.2622698901739637</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4213055033556483</v>
+        <v>-0.4363944154710838</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1933992175567934</v>
+        <v>-0.2051287938168143</v>
       </c>
     </row>
     <row r="39">
@@ -1881,31 +1877,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.821802551229675</v>
+        <v>3.299057975620011</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.309100986869964</v>
+        <v>3.647022386023071</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.205834409785673</v>
+        <v>3.005180550041787</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.577862796825992</v>
+        <v>2.996951476664688</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.20921093210383</v>
+        <v>2.343004469782896</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.119113064083076</v>
+        <v>2.274641709506712</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.807101170948301</v>
+        <v>1.679792790174582</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.506071667345037</v>
+        <v>1.290127201870813</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.534726514036246</v>
+        <v>1.579949456545899</v>
       </c>
     </row>
     <row r="40">
@@ -1944,7 +1940,7 @@
         <v>-1.459797398919167</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.4367449917898253</v>
+        <v>-0.4367449917898246</v>
       </c>
     </row>
     <row r="41">
@@ -1955,31 +1951,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.683168920743078</v>
+        <v>-4.766344657595662</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.667738433268723</v>
+        <v>-4.529492094712396</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.0544647690877</v>
+        <v>-3.822193667792475</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.292523576219706</v>
+        <v>-1.417973299239196</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.473684316856611</v>
+        <v>-2.194962509128712</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.8946915592945051</v>
+        <v>-1.044791593673251</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.344459331468062</v>
+        <v>-2.290106633500482</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.953702293110627</v>
+        <v>-2.936333200500522</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.958346795541323</v>
+        <v>-1.866556782027814</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1986,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.9652861800638852</v>
+        <v>-1.079673383910316</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.8718555606444593</v>
+        <v>-0.808789531110689</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.2045717664799281</v>
+        <v>0.01213864571312729</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.224571081069062</v>
+        <v>3.088174675829871</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.632199948528334</v>
+        <v>1.707084802011782</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.792579585285013</v>
+        <v>2.814160451706525</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.4930027973059238</v>
+        <v>0.5374419783302914</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.2267998476597463</v>
+        <v>-0.1500363552374248</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.8343687167665947</v>
+        <v>0.9328533478160018</v>
       </c>
     </row>
     <row r="43">
@@ -2031,7 +2027,7 @@
         <v>-0.6297383882123223</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.4696864927925355</v>
+        <v>-0.4696864927925354</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.2456711083499216</v>
@@ -2049,7 +2045,7 @@
         <v>-0.3697206735624015</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.1106137417829999</v>
+        <v>-0.1106137417829998</v>
       </c>
     </row>
     <row r="44">
@@ -2060,31 +2056,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8624879185668904</v>
+        <v>-0.8738093307514431</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.8391981730639547</v>
+        <v>-0.8279478321235838</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7343796822750066</v>
+        <v>-0.7200956140539737</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2899513295996535</v>
+        <v>-0.3109454136206871</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5207496778202919</v>
+        <v>-0.4884348540149926</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2091423761271681</v>
+        <v>-0.2334963433405864</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.5062264782580629</v>
+        <v>-0.5053377192055708</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6123790971401707</v>
+        <v>-0.608397199266819</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4002616181640413</v>
+        <v>-0.3905322017954703</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2091,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.2398864497852836</v>
+        <v>-0.314323212794602</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.2038676982769304</v>
+        <v>-0.2045609043782152</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.03417913599172011</v>
+        <v>0.1341202859020045</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.16322634844221</v>
+        <v>1.073343871096516</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.6291905041201498</v>
+        <v>0.6511677429015793</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.039394825190633</v>
+        <v>0.9808546118840504</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1726288615140408</v>
+        <v>0.1613582869547017</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.05341727142540257</v>
+        <v>-0.02848948805802018</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2628530511144337</v>
+        <v>0.3076113360544702</v>
       </c>
     </row>
     <row r="46">
@@ -2149,7 +2145,7 @@
         <v>-2.959895400391795</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>4.003942104323728</v>
+        <v>4.00394210432373</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-1.714273502437474</v>
@@ -2169,31 +2165,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.544151259822707</v>
+        <v>-4.441547053970425</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.323505102377997</v>
+        <v>-5.263921780508578</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.372907533195418</v>
+        <v>-3.158565014611973</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.327890741987177</v>
+        <v>-3.176583905507493</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.420612544947081</v>
+        <v>-5.506793354584266</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.446348117713872</v>
+        <v>1.245387829240943</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-3.283963281482424</v>
+        <v>-3.149224521649092</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-4.842165527651375</v>
+        <v>-4.963482133454014</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.3510418198431253</v>
+        <v>-0.2502474281474661</v>
       </c>
     </row>
     <row r="48">
@@ -2204,31 +2200,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-1.37505941737238</v>
+        <v>-1.366396844173405</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-2.275583167639373</v>
+        <v>-2.24643102331586</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.2873027129288287</v>
+        <v>0.2023359245729517</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.841111823372034</v>
+        <v>1.905264844636928</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.7288316201829778</v>
+        <v>-0.6760977012571698</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.499423084203379</v>
+        <v>6.533823045252032</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.2163523681806188</v>
+        <v>-0.1803724692499966</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.993507602878549</v>
+        <v>-2.000346020097512</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.857553422329185</v>
+        <v>2.81824868942007</v>
       </c>
     </row>
     <row r="49">
@@ -2254,7 +2250,7 @@
         <v>-0.4416491952475171</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.597432533581475</v>
+        <v>0.5974325335814752</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.3121586064457773</v>
@@ -2274,31 +2270,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8480471862727968</v>
+        <v>-0.841210448898806</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.9775256427944436</v>
+        <v>-0.976235620182461</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6174310108705831</v>
+        <v>-0.6188649974443671</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4120215504580855</v>
+        <v>-0.3849963182016509</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.6564107187972575</v>
+        <v>-0.6504187748920718</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1758214824754421</v>
+        <v>0.1615421071734031</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5075471220356383</v>
+        <v>-0.4989891916191326</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.7499005904702229</v>
+        <v>-0.762653824507552</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.05887870602868345</v>
+        <v>-0.03423107261754101</v>
       </c>
     </row>
     <row r="51">
@@ -2309,31 +2305,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.3718832223850512</v>
+        <v>-0.3688402362050738</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.5976712685947224</v>
+        <v>-0.6096654717753707</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1182479441296422</v>
+        <v>0.07800748066991964</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3540975687228763</v>
+        <v>0.3824717901797594</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.1019153180473298</v>
+        <v>-0.08729059755669596</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.194561453757836</v>
+        <v>1.249396010710099</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.02025252187787843</v>
+        <v>-0.03261214310726318</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.4145665228527888</v>
+        <v>-0.4161747233978882</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.6134625595196319</v>
+        <v>0.616657706484292</v>
       </c>
     </row>
     <row r="52">
@@ -2372,7 +2368,7 @@
         <v>-1.419033442530246</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-0.2979168207970666</v>
+        <v>-0.2979168207970673</v>
       </c>
     </row>
     <row r="53">
@@ -2383,31 +2379,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.645109682726414</v>
+        <v>-1.597817308131853</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.331501662752117</v>
+        <v>-2.249261770489147</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.800013266150791</v>
+        <v>-1.788689365598611</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.4109677610249828</v>
+        <v>-0.3287985899713057</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.384588824412565</v>
+        <v>-2.29339208126057</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.5756019321535997</v>
+        <v>-0.5677824100930146</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.6925605118486795</v>
+        <v>-0.6543071943733034</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-2.055183787126698</v>
+        <v>-2.037008578230307</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.9415890404937153</v>
+        <v>-0.9614277904195392</v>
       </c>
     </row>
     <row r="54">
@@ -2418,31 +2414,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.05633075839015642</v>
+        <v>-0.08488161611159985</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.9164441853216196</v>
+        <v>-0.882587889773072</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-0.3742026186441672</v>
+        <v>-0.3812819242050615</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.835832037242296</v>
+        <v>1.866670311511046</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.3299238365996345</v>
+        <v>-0.2678111412150579</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.319670806410333</v>
+        <v>1.37186043244451</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.6632730136828353</v>
+        <v>0.7299726664694614</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.7876472494364724</v>
+        <v>-0.8655124863040086</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.2593290783993613</v>
+        <v>0.2810391166619803</v>
       </c>
     </row>
     <row r="55">
@@ -2477,7 +2473,7 @@
         <v>-0.3539134922652143</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.07430183059310988</v>
+        <v>-0.07430183059311005</v>
       </c>
     </row>
     <row r="56">
@@ -2488,31 +2484,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.4868309707064807</v>
+        <v>-0.469951743476135</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.6897933406095341</v>
+        <v>-0.688286958680832</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.5266535671779222</v>
+        <v>-0.536936224382616</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.07646058351713153</v>
+        <v>-0.05986232162606449</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.4204396215064795</v>
+        <v>-0.4041914619883706</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.1075541041784987</v>
+        <v>-0.09977554717945158</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.161115397958124</v>
+        <v>-0.1540338577253034</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.4700426388813683</v>
+        <v>-0.4743496918035885</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.2153462147692817</v>
+        <v>-0.2180345894581076</v>
       </c>
     </row>
     <row r="57">
@@ -2523,31 +2519,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.02139132506212554</v>
+        <v>-0.02597125215463272</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.3590024914509384</v>
+        <v>-0.3593761992680608</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1442595661063765</v>
+        <v>-0.1541191360657518</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.3974890151246002</v>
+        <v>0.4133473237341314</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.07460135226731252</v>
+        <v>-0.05449450053105412</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.299322455834423</v>
+        <v>0.3031105252636122</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1745995881892064</v>
+        <v>0.2024739962570112</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.2153698233492628</v>
+        <v>-0.2257793718019556</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.07051611879801695</v>
+        <v>0.07672826864599644</v>
       </c>
     </row>
     <row r="58">
